--- a/861Analytical Decision Making/Assignment3/MMA 861 Assignment 3 - Copy.xlsx
+++ b/861Analytical Decision Making/Assignment3/MMA 861 Assignment 3 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/861Analytical Decision Making/Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2257" documentId="8_{CB4D6E2A-F3AA-49C5-B8B9-E7E74A2E5788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{7445DD26-0049-4562-A1CB-F505FBC63425}"/>
+  <xr:revisionPtr revIDLastSave="2278" documentId="8_{CB4D6E2A-F3AA-49C5-B8B9-E7E74A2E5788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8D0690-BC7E-466C-920A-CCD62D5A2AF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="450" windowWidth="22905" windowHeight="13680" firstSheet="1" activeTab="1" xr2:uid="{70A9BCFC-0AFF-4E4A-BBC1-97C48CAAAB3F}"/>
+    <workbookView xWindow="300" yWindow="1245" windowWidth="16995" windowHeight="9765" firstSheet="1" activeTab="2" xr2:uid="{70A9BCFC-0AFF-4E4A-BBC1-97C48CAAAB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -19890,7 +19890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09152092-A219-401C-A5B1-4E2D785729E5}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -20449,8 +20449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF8BC7A-BC48-445A-BF53-CEA5D0FFD310}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20803,7 +20803,7 @@
       </c>
       <c r="F2" s="2">
         <f>_xll.PTreeEvaluate5(B3,$L$11:$L$33,$J$11:$J$33,$K$11:$K$33,$N$11:$N$33,$G$11:$G$33,,L1)</f>
-        <v>205827</v>
+        <v>412053</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -21812,7 +21812,7 @@
       </c>
       <c r="F2" s="2">
         <f>_xll.PTreeEvaluate5(B3,$L$11:$L$22,$J$11:$J$22,$K$11:$K$22,$N$11:$N$22,$G$11:$G$22,,L1)</f>
-        <v>231554</v>
+        <v>437780</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -22430,7 +22430,7 @@
       </c>
       <c r="F2" s="2">
         <f>_xll.PTreeEvaluate5(B3,$L$11:$L$49,$J$11:$J$49,$K$11:$K$49,$N$11:$N$49,$G$11:$G$49,,L1)</f>
-        <v>180097</v>
+        <v>334867</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -24114,20 +24114,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fb339244-e6a4-4149-875f-acefc8df4b4a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fb339244-e6a4-4149-875f-acefc8df4b4a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24150,26 +24150,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6B9C85-9BAA-4314-9E09-FD31F06404D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE1A064-4E17-4B87-8254-B13AE221719B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fb339244-e6a4-4149-875f-acefc8df4b4a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b83dee95-08e8-4a44-a54e-c11f51936357"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE1A064-4E17-4B87-8254-B13AE221719B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6B9C85-9BAA-4314-9E09-FD31F06404D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b83dee95-08e8-4a44-a54e-c11f51936357"/>
+    <ds:schemaRef ds:uri="fb339244-e6a4-4149-875f-acefc8df4b4a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>